--- a/test/xlsx/h5getInfo.xlsx
+++ b/test/xlsx/h5getInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Home</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>uint8</t>
+  </si>
+  <si>
+    <t>C:\Users\Gerd\git\PyHexad\test\xlsx\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +143,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,9 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,9 +508,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <f ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"),1)-1)</f>
-        <v>C:\Users\Gerd\git\PyHexad\test\xlsx\</v>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">CONCATENATE($B1,"..\..\testfiles\hdfeos5.h5")</f>
+        <f>CONCATENATE($B1,"..\..\testfiles\hdfeos5.h5")</f>
         <v>C:\Users\Gerd\git\PyHexad\test\xlsx\..\..\testfiles\hdfeos5.h5</v>
       </c>
     </row>
@@ -503,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f ca="1">CONCATENATE($B1,"..\..\testfiles\tall_with_udlink.h5")</f>
+        <f>CONCATENATE($B1,"..\..\testfiles\tall_with_udlink.h5")</f>
         <v>C:\Users\Gerd\git\PyHexad\test\xlsx\..\..\testfiles\tall_with_udlink.h5</v>
       </c>
     </row>
@@ -512,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f ca="1">CONCATENATE($B1,"..\..\testfiles\group100.h5")</f>
+        <f>CONCATENATE($B1,"..\..\testfiles\group100.h5")</f>
         <v>C:\Users\Gerd\git\PyHexad\test\xlsx\..\..\testfiles\group100.h5</v>
       </c>
     </row>
@@ -521,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="str">
-        <f ca="1">CONCATENATE($B1,"..\..\testfiles\ex_image3.h5")</f>
+        <f>CONCATENATE($B1,"..\..\testfiles\ex_image3.h5")</f>
         <v>C:\Users\Gerd\git\PyHexad\test\xlsx\..\..\testfiles\ex_image3.h5</v>
       </c>
     </row>
@@ -544,9 +567,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f ca="1">_xll.h5getInfo(Globals!$B2, "/HDFEOS/ADDITIONAL/FILE_ATTRIBUTES")</f>
-        <v/>
+      <c r="A1" s="3" t="str">
+        <f>_xll.h5getInfo(Globals!$B2, "/HDFEOS/ADDITIONAL/FILE_ATTRIBUTES")</f>
+        <v>/HDFEOS/ADDITIONAL/FILE_ATTRIBUTES</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,9 +670,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f ca="1">_xll.h5getInfo(Globals!$B5, "Land data")</f>
-        <v/>
+      <c r="A1" s="3" t="str">
+        <f>_xll.h5getInfo(Globals!$B5, "Land data")</f>
+        <v>Land data</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/test/xlsx/h5getInfo.xlsx
+++ b/test/xlsx/h5getInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Shape:</t>
   </si>
   <si>
-    <t>(721, 841)</t>
-  </si>
-  <si>
     <t>Type:</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>C:\Users\Gerd\git\PyHexad\test\xlsx\</t>
+  </si>
+  <si>
+    <t>{ 721, 841 }</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -728,15 +730,15 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
